--- a/data/trans_orig/P19C07-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12316</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6663</v>
+        <v>6862</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20007</v>
+        <v>20757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03110718219658881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01682905322602226</v>
+        <v>0.01733249466201997</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05053279512370025</v>
+        <v>0.052427122178238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>18715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11310</v>
+        <v>11515</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28399</v>
+        <v>29130</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02561565284763196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01548051756426132</v>
+        <v>0.01576148429481435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03887106526562405</v>
+        <v>0.03987036093113636</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -786,19 +786,19 @@
         <v>31031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21553</v>
+        <v>21559</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43685</v>
+        <v>43198</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02754564615793917</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01913244271198396</v>
+        <v>0.0191378104791342</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03877845383228355</v>
+        <v>0.03834617499302298</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>383599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>375908</v>
+        <v>375158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389252</v>
+        <v>389053</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9688928178034112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9494672048762998</v>
+        <v>0.947572877821762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9831709467739776</v>
+        <v>0.98266750533798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>683</v>
@@ -836,19 +836,19 @@
         <v>711891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>702207</v>
+        <v>701476</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>719296</v>
+        <v>719091</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.974384347152368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9611289347343761</v>
+        <v>0.9601296390688638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9845194824357388</v>
+        <v>0.9842385157051857</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1064</v>
@@ -857,19 +857,19 @@
         <v>1095490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1082836</v>
+        <v>1083323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1104968</v>
+        <v>1104962</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9724543538420608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9612215461677165</v>
+        <v>0.961653825006977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9808675572880161</v>
+        <v>0.9808621895208658</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>28052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19014</v>
+        <v>18497</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40386</v>
+        <v>38894</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0351031504283058</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02379404255342765</v>
+        <v>0.02314652155829032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05053750596817675</v>
+        <v>0.04867126282512831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -982,19 +982,19 @@
         <v>29701</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20296</v>
+        <v>19915</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44392</v>
+        <v>40644</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03494452558905296</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02387873898383677</v>
+        <v>0.0234308161762597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05222894555177401</v>
+        <v>0.04781923465393327</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>57753</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43685</v>
+        <v>43290</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74446</v>
+        <v>72996</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03502139385254985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02649081802816569</v>
+        <v>0.02625105302566559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04514398000994185</v>
+        <v>0.04426518307413697</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>771073</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>758739</v>
+        <v>760231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>780111</v>
+        <v>780628</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9648968495716942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9494624940318235</v>
+        <v>0.9513287371748718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9762059574465723</v>
+        <v>0.9768534784417098</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>798</v>
@@ -1053,19 +1053,19 @@
         <v>820243</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>805552</v>
+        <v>809300</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>829648</v>
+        <v>830029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9650554744109471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.947771054448226</v>
+        <v>0.9521807653460669</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9761212610161631</v>
+        <v>0.9765691838237404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1550</v>
@@ -1074,19 +1074,19 @@
         <v>1591316</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1574623</v>
+        <v>1576073</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1605384</v>
+        <v>1605779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9649786061474501</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9548560199900581</v>
+        <v>0.9557348169258625</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9735091819718342</v>
+        <v>0.9737489469743341</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>29524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19714</v>
+        <v>20206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41511</v>
+        <v>43554</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03311600817774226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02211201826677259</v>
+        <v>0.02266394559368811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04656116931771146</v>
+        <v>0.04885281313845774</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1199,19 +1199,19 @@
         <v>32771</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23671</v>
+        <v>22320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45281</v>
+        <v>45501</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03950072579247006</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02853255639782232</v>
+        <v>0.02690363951527572</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05458029504558885</v>
+        <v>0.05484500082005512</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -1220,19 +1220,19 @@
         <v>62295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48264</v>
+        <v>47323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80457</v>
+        <v>79396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03619352483356236</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0280415415767599</v>
+        <v>0.02749488614819733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04674579242116971</v>
+        <v>0.04612923489979128</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>862018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>850031</v>
+        <v>847988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>871828</v>
+        <v>871336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9668839918222577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9534388306822879</v>
+        <v>0.951147186861543</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9778879817332273</v>
+        <v>0.9773360544063119</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>788</v>
@@ -1270,19 +1270,19 @@
         <v>796853</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>784343</v>
+        <v>784123</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>805953</v>
+        <v>807304</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9604992742075299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9454197049544111</v>
+        <v>0.9451549991799447</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9714674436021776</v>
+        <v>0.9730963604847241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1634</v>
@@ -1291,19 +1291,19 @@
         <v>1658871</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1640709</v>
+        <v>1641770</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1672902</v>
+        <v>1673843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9638064751664377</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9532542075788303</v>
+        <v>0.9538707651002087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9719584584232401</v>
+        <v>0.9725051138518027</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14429</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8327</v>
+        <v>8548</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23089</v>
+        <v>23199</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04244340174642356</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02449335129524512</v>
+        <v>0.02514398975449076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06791514162489524</v>
+        <v>0.06824130111836578</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>9266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4640</v>
+        <v>4657</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16364</v>
+        <v>16638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0332552721242045</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01665486246943727</v>
+        <v>0.01671340578048595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05873039597431215</v>
+        <v>0.05971658799795297</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1437,19 +1437,19 @@
         <v>23695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15945</v>
+        <v>15481</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34742</v>
+        <v>33672</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03830489194836406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02577697306840453</v>
+        <v>0.02502720218007939</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05616332522859124</v>
+        <v>0.05443362010295638</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>325533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>316873</v>
+        <v>316763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>331635</v>
+        <v>331414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9575565982535764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9320848583751048</v>
+        <v>0.9317586988816342</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9755066487047549</v>
+        <v>0.9748560102455093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>268</v>
@@ -1487,19 +1487,19 @@
         <v>269356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>262258</v>
+        <v>261984</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>273982</v>
+        <v>273965</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9667447278757955</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9412696040256876</v>
+        <v>0.9402834120020477</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9833451375305627</v>
+        <v>0.9832865942195146</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>583</v>
@@ -1508,19 +1508,19 @@
         <v>594889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>583842</v>
+        <v>584912</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>602639</v>
+        <v>603103</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9616951080516359</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9438366747714089</v>
+        <v>0.9455663798970436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9742230269315956</v>
+        <v>0.9749727978199206</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>84321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67173</v>
+        <v>68563</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102682</v>
+        <v>103768</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03474944671484454</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02768271542685736</v>
+        <v>0.02825562933877545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04231620712578195</v>
+        <v>0.04276372168899684</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>91</v>
@@ -1633,19 +1633,19 @@
         <v>90452</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72109</v>
+        <v>72712</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109525</v>
+        <v>110104</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0336404256106712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02681837521503462</v>
+        <v>0.02704248048211647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04073375367006065</v>
+        <v>0.0409491662478488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -1654,19 +1654,19 @@
         <v>174773</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>150601</v>
+        <v>149889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201756</v>
+        <v>200547</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03416650752618574</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02944109535146696</v>
+        <v>0.02930183511382595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03944130580489669</v>
+        <v>0.03920495940662067</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2342222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2323861</v>
+        <v>2322775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2359370</v>
+        <v>2357980</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9652505532851554</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9576837928742179</v>
+        <v>0.9572362783110031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9723172845731426</v>
+        <v>0.9717443706612245</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2537</v>
@@ -1704,19 +1704,19 @@
         <v>2598344</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2579271</v>
+        <v>2578692</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2616687</v>
+        <v>2616084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9663595743893288</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9592662463299396</v>
+        <v>0.9590508337521514</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9731816247849654</v>
+        <v>0.9729575195178837</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4831</v>
@@ -1725,19 +1725,19 @@
         <v>4940567</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4913584</v>
+        <v>4914793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4964739</v>
+        <v>4965451</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9658334924738142</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9605586941951032</v>
+        <v>0.9607950405933785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9705589046485329</v>
+        <v>0.970698164886174</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>23533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14674</v>
+        <v>14333</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34705</v>
+        <v>34072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02851110051555752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01777808699609874</v>
+        <v>0.01736452148531472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04204715433439498</v>
+        <v>0.04127955965317431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2090,19 +2090,19 @@
         <v>20147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12313</v>
+        <v>11781</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30379</v>
+        <v>31874</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02126360053589569</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01299580342862134</v>
+        <v>0.01243430107543608</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0320631878648868</v>
+        <v>0.0336408522435484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -2111,19 +2111,19 @@
         <v>43679</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31597</v>
+        <v>30775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60654</v>
+        <v>60551</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02463782086068493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01782251910055091</v>
+        <v>0.01735876204746121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03421271948998705</v>
+        <v>0.03415465432934341</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>801858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>790686</v>
+        <v>791319</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>810717</v>
+        <v>811058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9714888994844425</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.957952845665605</v>
+        <v>0.9587204403468257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9822219130039013</v>
+        <v>0.9826354785146852</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>854</v>
@@ -2161,19 +2161,19 @@
         <v>927322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>917090</v>
+        <v>915595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>935156</v>
+        <v>935688</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9787363994641043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9679368121351134</v>
+        <v>0.9663591477564517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9870041965713786</v>
+        <v>0.9875656989245639</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1606</v>
@@ -2182,19 +2182,19 @@
         <v>1729181</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1712206</v>
+        <v>1712309</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1741263</v>
+        <v>1742085</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9753621791393151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9657872805100133</v>
+        <v>0.9658453456706574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9821774808994491</v>
+        <v>0.9826412379525394</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>27288</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18714</v>
+        <v>18150</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40361</v>
+        <v>40697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03245545032951051</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02225754104145073</v>
+        <v>0.0215870262739453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04800412120528555</v>
+        <v>0.04840375038252979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -2307,19 +2307,19 @@
         <v>36453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24702</v>
+        <v>24693</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50314</v>
+        <v>51491</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03786242340272388</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02565677964985626</v>
+        <v>0.02564795766520361</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05226021823383886</v>
+        <v>0.05348205825192024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -2328,19 +2328,19 @@
         <v>63740</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47424</v>
+        <v>48710</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84021</v>
+        <v>82087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03534180383015709</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02629500818623082</v>
+        <v>0.02700806368618161</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04658694522863564</v>
+        <v>0.04551451977544931</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>813485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>800412</v>
+        <v>800076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>822059</v>
+        <v>822623</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9675445496704895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9519958787947146</v>
+        <v>0.9515962496174702</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9777424589585494</v>
+        <v>0.9784129737260547</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>865</v>
@@ -2378,19 +2378,19 @@
         <v>926314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>912453</v>
+        <v>911276</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>938065</v>
+        <v>938074</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9621375765972762</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9477397817661609</v>
+        <v>0.9465179417480798</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9743432203501436</v>
+        <v>0.9743520423347962</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1639</v>
@@ -2399,19 +2399,19 @@
         <v>1739800</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1719519</v>
+        <v>1721453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1756116</v>
+        <v>1754830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9646581961698429</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9534130547713644</v>
+        <v>0.9544854802245508</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9737049918137692</v>
+        <v>0.9729919363138184</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>26844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17266</v>
+        <v>17646</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38118</v>
+        <v>38430</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03442514279057037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02214274332091926</v>
+        <v>0.02262963322691012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04888349811013695</v>
+        <v>0.04928300193540983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -2524,19 +2524,19 @@
         <v>35611</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25551</v>
+        <v>25856</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49586</v>
+        <v>49160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04417659082911311</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03169677419492844</v>
+        <v>0.03207546818083171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06151378316219105</v>
+        <v>0.06098455501594854</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -2545,19 +2545,19 @@
         <v>62455</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48412</v>
+        <v>48911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79409</v>
+        <v>77383</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03938178852295036</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03052683276336675</v>
+        <v>0.03084149312487998</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05007247031108635</v>
+        <v>0.04879506646446199</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>752933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>741659</v>
+        <v>741347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>762511</v>
+        <v>762131</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9655748572094296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9511165018898631</v>
+        <v>0.9507169980645901</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9778572566790807</v>
+        <v>0.9773703667730899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>719</v>
@@ -2595,19 +2595,19 @@
         <v>770487</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>756512</v>
+        <v>756938</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>780547</v>
+        <v>780242</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9558234091708869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.938486216837809</v>
+        <v>0.9390154449840514</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9683032258050716</v>
+        <v>0.9679245318191683</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1427</v>
@@ -2616,19 +2616,19 @@
         <v>1523420</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506466</v>
+        <v>1508492</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1537463</v>
+        <v>1536964</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9606182114770496</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9499275296889137</v>
+        <v>0.951204933535538</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9694731672366332</v>
+        <v>0.9691585068751201</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>19730</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11922</v>
+        <v>11773</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30881</v>
+        <v>30822</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04343830321055366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02624755364907591</v>
+        <v>0.02592057442694213</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0679896731479431</v>
+        <v>0.06786118715456044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -2741,19 +2741,19 @@
         <v>20730</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13062</v>
+        <v>11958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31939</v>
+        <v>30974</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04989662730952123</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03143943350375326</v>
+        <v>0.02878223964869055</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07687597670128293</v>
+        <v>0.07455339046512539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -2762,19 +2762,19 @@
         <v>40459</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29053</v>
+        <v>29265</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57701</v>
+        <v>55020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04652361232700741</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03340733410162311</v>
+        <v>0.03365183174973677</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06634895168758413</v>
+        <v>0.06326603627215695</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>434468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>423317</v>
+        <v>423376</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>442276</v>
+        <v>442425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9565616967894464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9320103268520568</v>
+        <v>0.9321388128454398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9737524463509237</v>
+        <v>0.974079425573058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>359</v>
@@ -2812,19 +2812,19 @@
         <v>394727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>383518</v>
+        <v>384483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>402395</v>
+        <v>403499</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9501033726904787</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9231240232987171</v>
+        <v>0.9254466095348747</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9685605664962468</v>
+        <v>0.9712177603513095</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>757</v>
@@ -2833,19 +2833,19 @@
         <v>829196</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>811954</v>
+        <v>814635</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>840602</v>
+        <v>840390</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9534763876729926</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9336510483124155</v>
+        <v>0.9367339637278431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9665926658983769</v>
+        <v>0.9663481682502633</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>97394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75353</v>
+        <v>77588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118548</v>
+        <v>118556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03358252806708654</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02598241482847705</v>
+        <v>0.02675323847212219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04087664658298878</v>
+        <v>0.04087940424240716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -2958,19 +2958,19 @@
         <v>112940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>93658</v>
+        <v>91063</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137755</v>
+        <v>135606</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03606238301046242</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02990556231932651</v>
+        <v>0.02907711874063688</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04398617778000725</v>
+        <v>0.04329998187696995</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -2979,19 +2979,19 @@
         <v>210334</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181030</v>
+        <v>183802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240238</v>
+        <v>241782</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03487007385408433</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03001197745414539</v>
+        <v>0.03047155725139021</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03982778633541939</v>
+        <v>0.04008366178231999</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2802746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2781592</v>
+        <v>2781584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2824787</v>
+        <v>2822552</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9664174719329135</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9591233534170112</v>
+        <v>0.9591205957575928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9740175851715229</v>
+        <v>0.9732467615278777</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2797</v>
@@ -3029,19 +3029,19 @@
         <v>3018850</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2994035</v>
+        <v>2996184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3038132</v>
+        <v>3040727</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9639376169895376</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9560138222199928</v>
+        <v>0.9567000181230301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9700944376806735</v>
+        <v>0.9709228812593631</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5429</v>
@@ -3050,19 +3050,19 @@
         <v>5821596</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5791692</v>
+        <v>5790148</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5850900</v>
+        <v>5848128</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9651299261459156</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9601722136645806</v>
+        <v>0.9599163382176801</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9699880225458547</v>
+        <v>0.9695284427486098</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>23697</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15540</v>
+        <v>15840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34670</v>
+        <v>36528</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03021209514927927</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01981284881194202</v>
+        <v>0.02019529376285207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04420190770759824</v>
+        <v>0.0465700407858126</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -3415,19 +3415,19 @@
         <v>36856</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25872</v>
+        <v>26373</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50031</v>
+        <v>49926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03994339173721834</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02803953994666038</v>
+        <v>0.02858227315094311</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05422201016258005</v>
+        <v>0.0541078953072417</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -3436,19 +3436,19 @@
         <v>60554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46619</v>
+        <v>45289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79543</v>
+        <v>76719</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03547208011316624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02730907979420584</v>
+        <v>0.02653017959892395</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04659590000013723</v>
+        <v>0.04494177626031299</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>760666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>749693</v>
+        <v>747835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>768823</v>
+        <v>768523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9697879048507208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9557980922924019</v>
+        <v>0.9534299592141877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9801871511880581</v>
+        <v>0.9798047062371479</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>850</v>
@@ -3486,19 +3486,19 @@
         <v>885858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>872683</v>
+        <v>872788</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>896842</v>
+        <v>896341</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9600566082627816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.94577798983742</v>
+        <v>0.9458921046927583</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9719604600533397</v>
+        <v>0.9714177268490569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1564</v>
@@ -3507,19 +3507,19 @@
         <v>1646523</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1627534</v>
+        <v>1630358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1660458</v>
+        <v>1661788</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9645279198868337</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9534040999998629</v>
+        <v>0.955058223739687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9726909202057942</v>
+        <v>0.9734698204010762</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>15286</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8166</v>
+        <v>8895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23320</v>
+        <v>24514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02139932858954438</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01143153278204191</v>
+        <v>0.01245272032904801</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03264615126521388</v>
+        <v>0.03431795987376469</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3632,19 +3632,19 @@
         <v>23828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15661</v>
+        <v>15904</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33687</v>
+        <v>35449</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02827650646775244</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01858467241361229</v>
+        <v>0.01887253536345438</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03997644610996824</v>
+        <v>0.04206644012991576</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -3653,19 +3653,19 @@
         <v>39114</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29199</v>
+        <v>28192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53621</v>
+        <v>52962</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02512140871996019</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01875317340788812</v>
+        <v>0.01810647414124817</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03443873598837614</v>
+        <v>0.03401547900715231</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>699031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>690997</v>
+        <v>689803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>706151</v>
+        <v>705422</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9786006714104556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9673538487347864</v>
+        <v>0.9656820401262354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9885684672179581</v>
+        <v>0.9875472796709521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>774</v>
@@ -3703,19 +3703,19 @@
         <v>818854</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>808995</v>
+        <v>807233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>827021</v>
+        <v>826778</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9717234935322475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9600235538900318</v>
+        <v>0.9579335598700842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9814153275863877</v>
+        <v>0.9811274646365455</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1453</v>
@@ -3724,19 +3724,19 @@
         <v>1517885</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1503378</v>
+        <v>1504037</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1527800</v>
+        <v>1528807</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9748785912800398</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.965561264011624</v>
+        <v>0.9659845209928476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9812468265921119</v>
+        <v>0.9818935258587516</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>25977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17293</v>
+        <v>16980</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37213</v>
+        <v>37446</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03627590435555516</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02414966702057539</v>
+        <v>0.02371164313434792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05196731570477715</v>
+        <v>0.05229175754132671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3852,16 +3852,16 @@
         <v>15414</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34888</v>
+        <v>35440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03633746045503815</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02339153937390877</v>
+        <v>0.02339058187574539</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05294313322217654</v>
+        <v>0.05378146282314229</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -3870,19 +3870,19 @@
         <v>49922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37878</v>
+        <v>36740</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66934</v>
+        <v>66320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03630540383716501</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02754651349571531</v>
+        <v>0.02671872762924548</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04867745001454541</v>
+        <v>0.0482308974492897</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>690114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>678878</v>
+        <v>678645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>698798</v>
+        <v>699111</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9637240956444448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9480326842952229</v>
+        <v>0.9477082424586734</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9758503329794246</v>
+        <v>0.9762883568656521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>605</v>
@@ -3920,7 +3920,7 @@
         <v>635024</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>624081</v>
+        <v>623529</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>643555</v>
@@ -3929,10 +3929,10 @@
         <v>0.9636625395449618</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9470568667778234</v>
+        <v>0.9462185371768577</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9766084606260912</v>
+        <v>0.9766094181242545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1263</v>
@@ -3941,19 +3941,19 @@
         <v>1325138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1308126</v>
+        <v>1308740</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1337182</v>
+        <v>1338320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.963694596162835</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9513225499854545</v>
+        <v>0.9517691025507103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9724534865042846</v>
+        <v>0.9732812723707545</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>10805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5579</v>
+        <v>5099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19248</v>
+        <v>20088</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02514134511567089</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0129828588579023</v>
+        <v>0.01186489096117996</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04478930947139099</v>
+        <v>0.04674295118137228</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4066,19 +4066,19 @@
         <v>18446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11139</v>
+        <v>10687</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28982</v>
+        <v>29218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04276400167127221</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02582389957561476</v>
+        <v>0.02477631251502379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06718944348554001</v>
+        <v>0.06773674427943899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -4087,19 +4087,19 @@
         <v>29251</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20145</v>
+        <v>19115</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41927</v>
+        <v>42312</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03396902350799601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02339479049642448</v>
+        <v>0.02219815504057798</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04868945877907931</v>
+        <v>0.04913639447916177</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>418949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>410506</v>
+        <v>409666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>424175</v>
+        <v>424655</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9748586548843291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.955210690528609</v>
+        <v>0.9532570488186278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9870171411420977</v>
+        <v>0.9881351090388204</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>387</v>
@@ -4137,19 +4137,19 @@
         <v>412906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>402370</v>
+        <v>402134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>420213</v>
+        <v>420665</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9572359983287277</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.93281055651446</v>
+        <v>0.9322632557205609</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9741761004243852</v>
+        <v>0.9752236874849761</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>774</v>
@@ -4158,19 +4158,19 @@
         <v>831856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>819180</v>
+        <v>818795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>840962</v>
+        <v>841992</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.966030976492004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9513105412209214</v>
+        <v>0.9508636055208384</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9766052095035755</v>
+        <v>0.9778018449594221</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>75765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60271</v>
+        <v>59705</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92871</v>
+        <v>94451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02864960580172878</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02279085431604273</v>
+        <v>0.02257701028730526</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03511834134320376</v>
+        <v>0.03571575922672571</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -4283,19 +4283,19 @@
         <v>103076</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84588</v>
+        <v>85197</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124635</v>
+        <v>124345</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03609462227398241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02962061149174898</v>
+        <v>0.02983375311064445</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04364416135037427</v>
+        <v>0.04354239722438199</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -4304,19 +4304,19 @@
         <v>178841</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>156398</v>
+        <v>154124</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>207508</v>
+        <v>206792</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03251504603657776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02843480850180988</v>
+        <v>0.02802139304914811</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03772711210427215</v>
+        <v>0.03759682889907757</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2568761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2551655</v>
+        <v>2550075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2584255</v>
+        <v>2584821</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9713503941982712</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9648816586567962</v>
+        <v>0.9642842407732743</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9772091456839573</v>
+        <v>0.9774229897126947</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2616</v>
@@ -4354,19 +4354,19 @@
         <v>2752641</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2731082</v>
+        <v>2731372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2771129</v>
+        <v>2770520</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9639053777260176</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.956355838649626</v>
+        <v>0.9564576027756181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9703793885082517</v>
+        <v>0.9701662468893557</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5054</v>
@@ -4375,19 +4375,19 @@
         <v>5321402</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5292735</v>
+        <v>5293451</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5343845</v>
+        <v>5346119</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9674849539634223</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9622728878957278</v>
+        <v>0.9624031711009222</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9715651914981902</v>
+        <v>0.9719786069508517</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>6504</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2406</v>
+        <v>2212</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15855</v>
+        <v>14812</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01438015372013756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005320002172105648</v>
+        <v>0.004891672654579486</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03505576320540057</v>
+        <v>0.03274902909403034</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -4740,19 +4740,19 @@
         <v>12816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7618</v>
+        <v>7471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20428</v>
+        <v>19596</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02175227034723392</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0129292195241325</v>
+        <v>0.01268049500671396</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0346705366214557</v>
+        <v>0.03325854339989174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -4761,19 +4761,19 @@
         <v>19320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12571</v>
+        <v>12325</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28696</v>
+        <v>29032</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01855077109700732</v>
+        <v>0.01855077109700733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0120701308817328</v>
+        <v>0.01183378351442315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02755327311253995</v>
+        <v>0.02787560353995736</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>445780</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>436429</v>
+        <v>437472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449878</v>
+        <v>450072</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9856198462798624</v>
+        <v>0.9856198462798623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9649442367945993</v>
+        <v>0.9672509709059696</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9946799978278938</v>
+        <v>0.9951083273454204</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>799</v>
@@ -4811,19 +4811,19 @@
         <v>576377</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>568765</v>
+        <v>569597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>581575</v>
+        <v>581722</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9782477296527663</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9653294633785442</v>
+        <v>0.9667414566001084</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9870707804758675</v>
+        <v>0.9873195049932862</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1206</v>
@@ -4832,19 +4832,19 @@
         <v>1022157</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1012781</v>
+        <v>1012445</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1028906</v>
+        <v>1029152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9814492289029927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9724467268874598</v>
+        <v>0.9721243964600417</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9879298691182672</v>
+        <v>0.9881662164855768</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>21252</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12686</v>
+        <v>12315</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35153</v>
+        <v>36314</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02307045111386226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01377182260011104</v>
+        <v>0.01336923148004214</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03816175903549947</v>
+        <v>0.03942203008018227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -4957,19 +4957,19 @@
         <v>36003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26978</v>
+        <v>25303</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49954</v>
+        <v>50119</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03311772755291034</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02481558265327771</v>
+        <v>0.02327533234731584</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04595003359098965</v>
+        <v>0.04610196380008461</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -4978,19 +4978,19 @@
         <v>57255</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44046</v>
+        <v>43679</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76267</v>
+        <v>73706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02850922911082429</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02193192180753906</v>
+        <v>0.02174912704899391</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03797603781164396</v>
+        <v>0.03670097408312981</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>899916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>886015</v>
+        <v>884854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>908482</v>
+        <v>908853</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9769295488861376</v>
+        <v>0.9769295488861378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.961838240964501</v>
+        <v>0.9605779699198184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9862281773998892</v>
+        <v>0.9866307685199579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1521</v>
@@ -5028,19 +5028,19 @@
         <v>1051125</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1037174</v>
+        <v>1037009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1060150</v>
+        <v>1061825</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9668822724470897</v>
+        <v>0.9668822724470895</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9540499664090105</v>
+        <v>0.9538980361999153</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9751844173467223</v>
+        <v>0.9767246676526844</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2384</v>
@@ -5049,19 +5049,19 @@
         <v>1951041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1932029</v>
+        <v>1934590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1964250</v>
+        <v>1964617</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9714907708891757</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9620239621883564</v>
+        <v>0.9632990259168703</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9780680781924612</v>
+        <v>0.9782508729510061</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>42315</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29521</v>
+        <v>29295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60657</v>
+        <v>59577</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04128624585120736</v>
+        <v>0.04128624585120737</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02880368180964909</v>
+        <v>0.02858268421094205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05918202678049886</v>
+        <v>0.0581281385079013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -5174,19 +5174,19 @@
         <v>52036</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39307</v>
+        <v>39798</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65248</v>
+        <v>67198</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05051537242472832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0381580720250288</v>
+        <v>0.03863469304444303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06334151632775546</v>
+        <v>0.06523410781521416</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -5195,19 +5195,19 @@
         <v>94351</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74019</v>
+        <v>75686</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120978</v>
+        <v>116095</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04591245193135343</v>
+        <v>0.04591245193135344</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03601878726971351</v>
+        <v>0.03682980768657849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05886964002688069</v>
+        <v>0.0564933427140756</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>982603</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>964261</v>
+        <v>965341</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>995397</v>
+        <v>995623</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9587137541487927</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9408179732195012</v>
+        <v>0.9418718614920986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.971196318190351</v>
+        <v>0.971417315789058</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1432</v>
@@ -5245,19 +5245,19 @@
         <v>978067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>964855</v>
+        <v>962905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>990796</v>
+        <v>990305</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9494846275752717</v>
+        <v>0.9494846275752719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9366584836722446</v>
+        <v>0.9347658921847858</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9618419279749713</v>
+        <v>0.9613653069555569</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2406</v>
@@ -5266,19 +5266,19 @@
         <v>1960671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1934044</v>
+        <v>1938927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1981003</v>
+        <v>1979336</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9540875480686464</v>
+        <v>0.9540875480686465</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9411303599731192</v>
+        <v>0.9435066572859243</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9639812127302865</v>
+        <v>0.9631701923134216</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>47744</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33987</v>
+        <v>33063</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66683</v>
+        <v>68338</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05025701598605064</v>
+        <v>0.05025701598605065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03577601196467386</v>
+        <v>0.03480348888197324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07019290973050246</v>
+        <v>0.07193537534584141</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -5391,19 +5391,19 @@
         <v>50659</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36823</v>
+        <v>36535</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69267</v>
+        <v>65351</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05751877543437011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04180869020595737</v>
+        <v>0.04148206360136462</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07864562198718328</v>
+        <v>0.07419962621561074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -5412,19 +5412,19 @@
         <v>98403</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78047</v>
+        <v>78283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123978</v>
+        <v>121608</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05375055071344342</v>
+        <v>0.05375055071344343</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04263113353482505</v>
+        <v>0.04276000156818165</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06771974630946602</v>
+        <v>0.06642555789506836</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>902254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>883315</v>
+        <v>881660</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>916011</v>
+        <v>916935</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9497429840139495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9298070902694975</v>
+        <v>0.9280646246541591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9642239880353263</v>
+        <v>0.9651965111180267</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1228</v>
@@ -5462,19 +5462,19 @@
         <v>830087</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>811479</v>
+        <v>815395</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>843923</v>
+        <v>844211</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9424812245656299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9213543780128166</v>
+        <v>0.9258003737843893</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9581913097940427</v>
+        <v>0.9585179363986353</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2110</v>
@@ -5483,19 +5483,19 @@
         <v>1732341</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1706766</v>
+        <v>1709136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1752697</v>
+        <v>1752461</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9462494492865565</v>
+        <v>0.9462494492865567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9322802536905341</v>
+        <v>0.9335744421049318</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9573688664651752</v>
+        <v>0.9572399984318185</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>117815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93182</v>
+        <v>94177</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145003</v>
+        <v>144419</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03518572730125007</v>
+        <v>0.03518572730125006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0278289732259003</v>
+        <v>0.02812613735060823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04330560460738007</v>
+        <v>0.04313114847420374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>180</v>
@@ -5608,19 +5608,19 @@
         <v>151515</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>130540</v>
+        <v>129158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178832</v>
+        <v>177741</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04223802151300248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03639065877154584</v>
+        <v>0.03600551743746849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04985333949990069</v>
+        <v>0.049548986678331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -5629,19 +5629,19 @@
         <v>269330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>236795</v>
+        <v>236610</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>308410</v>
+        <v>311763</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03883328611724698</v>
+        <v>0.038833286117247</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03414227535379469</v>
+        <v>0.03411564017332021</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04446812057905486</v>
+        <v>0.04495156414829986</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3230553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3203365</v>
+        <v>3203949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3255186</v>
+        <v>3254191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.96481427269875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.95669439539262</v>
+        <v>0.9568688515257968</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9721710267740996</v>
+        <v>0.9718738626493921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4980</v>
@@ -5679,19 +5679,19 @@
         <v>3435656</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3408339</v>
+        <v>3409430</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3456631</v>
+        <v>3458013</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9577619784869975</v>
+        <v>0.9577619784869974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9501466605000994</v>
+        <v>0.9504510133216689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9636093412284541</v>
+        <v>0.9639944825625314</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8106</v>
@@ -5700,19 +5700,19 @@
         <v>6666209</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6627129</v>
+        <v>6623776</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6698744</v>
+        <v>6698929</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.961166713882753</v>
+        <v>0.9611667138827531</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9555318794209455</v>
+        <v>0.9550484358517002</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9658577246462057</v>
+        <v>0.9658843598266799</v>
       </c>
     </row>
     <row r="18">
